--- a/StructureDefinition-chf-lasix-iv-administration.xlsx
+++ b/StructureDefinition-chf-lasix-iv-administration.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/cpg/chf/StructureDefinition/chf-lasix-iv-administration</t>
+    <t>http://cqframework.cpg-example-chf/StructureDefinition/chf-lasix-iv-administration</t>
   </si>
   <si>
     <t>Version</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T18:36:46+00:00</t>
+    <t>2024-11-18T18:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
